--- a/Result_Translator/V1/File/20230520/Af_results_Header.xlsx
+++ b/Result_Translator/V1/File/20230520/Af_results_Header.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="306">
   <si>
     <t>No.</t>
   </si>
@@ -133,6 +133,9 @@
     <t>2022-12-14 @ 8:00:07.050</t>
   </si>
   <si>
+    <t>Ali Saeed Ali (علي سعيد علي )</t>
+  </si>
+  <si>
     <t>2022-12-14 @ 8:00:07.051</t>
   </si>
   <si>
@@ -920,175 +923,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Hits </t>
-  </si>
-  <si>
-    <t>Ahmed Taleb Nasser (احمد طالب ناصر)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>"Jassim Jaber Ahmed" (جاسم جبر احمد)</t>
-  </si>
-  <si>
-    <t>Jassim Abdulla Jassim (جاسم عبدالله جاسم)</t>
-  </si>
-  <si>
-    <t>Jassim Abdulla Youssif (جاسم عبدالله يوسف)</t>
-  </si>
-  <si>
-    <t>Jassim Mohammed Khaled (جاسم محمد خالد)</t>
-  </si>
-  <si>
-    <t>Hamad Meret Fahad (حمد مريط فهد)</t>
-  </si>
-  <si>
-    <t>Hassan Youssif Hussien (حسن يوسف حسين)</t>
-  </si>
-  <si>
-    <t>Khaled Essa Mohammed (خالد عيسى محمد)</t>
-  </si>
-  <si>
-    <t>Rashid Juthnan Mohammed (راشد جذنان محمد)</t>
-  </si>
-  <si>
-    <t>Saud Ibrahim Ali (سعود ابراهيم علي)</t>
-  </si>
-  <si>
-    <t>Salman Abdulla Salman (سلمان عبدالله سلمان)</t>
-  </si>
-  <si>
-    <t>Saqer Ali Saqer (صقر علي صقر )</t>
-  </si>
-  <si>
-    <t>Talal Hazza Dawood (طلال هزاع داود)</t>
-  </si>
-  <si>
-    <t>Abdulrahman Abdulraouf Abdulrahman (عبدالرحمن عبدالرؤوف عبدالرحمن )</t>
-  </si>
-  <si>
-    <t>Abdulrahman Awad Mesfer (عبدالرحمن عوض مسفر )</t>
-  </si>
-  <si>
-    <t>Abdulaziz Mohammed Farhan (عبدالعزيز محمد فرحان )</t>
-  </si>
-  <si>
-    <t>Abdulaziz Nasser Awad (عبدالعزيز ناصر عواد)</t>
-  </si>
-  <si>
-    <t>Abdulla Ahmed Youssif (عبدالله احمد يوسف )</t>
-  </si>
-  <si>
-    <t>Abdulla Jaber Abdulla (عبدالله جابر عبدالله )</t>
-  </si>
-  <si>
-    <t>Abdulla Rashid Abdulla  (عبدالله راشد عبدالله )</t>
-  </si>
-  <si>
-    <t>Abdulla Essa Abdulla  (عبدالله عيسى عبدالله)</t>
-  </si>
-  <si>
-    <t>Abdulla Mohammed Abaad  (عبدالله محمد عباد)</t>
-  </si>
-  <si>
-    <t>Mubarak Hmyed Mohammed  (مبارك حميد محمد )</t>
-  </si>
-  <si>
-    <t>Mubarak Saeed Mohammed  (مبارك سعيد محمد)</t>
-  </si>
-  <si>
-    <t>Mubarak Mansour Mubarak (مبارك منصور مبارك )</t>
-  </si>
-  <si>
-    <t>Mohammed Hamad Abdullateef  (محمد حمد عبداللطيف)</t>
-  </si>
-  <si>
-    <t>Mohamed Khalfan Rashid  (محمد خلفان راشد )</t>
-  </si>
-  <si>
-    <t>Mohammed Saleh Mohamed  (محمد صالح محمد )</t>
-  </si>
-  <si>
-    <t>Mohammed Adel Mohammed  (محمد عادل محمد )</t>
-  </si>
-  <si>
-    <t>Mohammed Abdulrahman Mohammed  (محمد عبدالرحمن محمد)</t>
-  </si>
-  <si>
-    <t>Mohammed Abdulla Hassan  (محمد عبدالله حسن )</t>
-  </si>
-  <si>
-    <t>Mohammed Ali Khalifa  (محمد علي خليفة )</t>
-  </si>
-  <si>
-    <t>Mesfer Abdulla Mesfer (مسفر عبدالله مسفر)</t>
-  </si>
-  <si>
-    <t>Ahmed Zamel Ibrahim (احمد زامل ابراهيم )</t>
-  </si>
-  <si>
-    <t>Tamim Ahmed Ali (تميم احمد علي)</t>
-  </si>
-  <si>
-    <t>Hamad Khalifa Hamad  (حمد خليفة حمد )</t>
-  </si>
-  <si>
-    <t>Hamad Khalifa Muhana  (حمد خليفة مهنا)</t>
-  </si>
-  <si>
-    <t>Hamad Rashid Mohammed  (حمد راشد محمد)</t>
-  </si>
-  <si>
-    <t>Hamad Fadel Saleh  (حمد فاضل صالح)</t>
-  </si>
-  <si>
-    <t>Khaled Ali Abdulla  (خالد علي عبدالله )</t>
-  </si>
-  <si>
-    <t>Khaled Mohammed Rashid (خالد محمد راشد)</t>
-  </si>
-  <si>
-    <t>Khaleel Hadi Nasser  (خليل هادي ناصر )</t>
-  </si>
-  <si>
-    <t>Raed Mohammed Hamed (رائد محمد حامد)</t>
-  </si>
-  <si>
-    <t>Salem Abdulla Hzaam  (سالم عبدالله حزام)</t>
-  </si>
-  <si>
-    <t>Saad khalid Saad (سعد خالد سعد)</t>
-  </si>
-  <si>
-    <t>Talal Khalid Muzel  (طلال خالد مزعل)</t>
-  </si>
-  <si>
-    <t>Abdulrahman Fahad Mohammed (عبدالرحمن فهد محمد)</t>
-  </si>
-  <si>
-    <t>Abdulla Bader Salem  (عبدالله بدر سالم )</t>
-  </si>
-  <si>
-    <t>Abdulla Khalifa Saad  (عبدالله خليفة سعد)</t>
-  </si>
-  <si>
-    <t>Abdulla Saleh Ali (عبدالله صالح علي )</t>
-  </si>
-  <si>
-    <t>Abdulla Mahmoud Mthana (عبدالله محمود مثنى )</t>
-  </si>
-  <si>
-    <t>Abdulhadi Saad Abdulhadi (عبدالهادي سعد عبدالهادي)</t>
-  </si>
-  <si>
-    <t>Ali Ajlan Mubark  (علي عجلان مبارك)</t>
-  </si>
-  <si>
-    <t>Omar Abdulaziz Abdulla  (عمر عبدالعزيز عبدالله )</t>
-  </si>
-  <si>
-    <t>Ganim Saleh Khmees (غانم صالح خميس )</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1173,121 +1007,22 @@
 </t>
   </si>
   <si>
-    <t>Mohammed Hassan Jaber  (محمد حسن جابر )</t>
-  </si>
-  <si>
-    <t>Mohammed Hamad Mohammed  (محمد حمد محمد)</t>
-  </si>
-  <si>
-    <t>Mohammed Rashid Ali (محمد راشد علي )</t>
-  </si>
-  <si>
-    <t>Mohammed Abdulla Mohammed  (محمد عبدالله محمد )</t>
-  </si>
-  <si>
-    <t>Mohammed Ali Tableb  (محمد علي طالب )</t>
-  </si>
-  <si>
-    <t>Mohammed Ganim Jassim (محمد غانم جاسم )</t>
-  </si>
-  <si>
-    <t>Mohammed Mubarak Fadgoush  (محمد مبارك فدغوش )</t>
-  </si>
-  <si>
-    <t>Mohammed Youssif Mohammed  (محمد يوسف محمد )</t>
-  </si>
-  <si>
-    <t>Mansour Mohamed Essa  (منصور محمد عيسى )</t>
-  </si>
-  <si>
-    <t>Nasser Ahmed Khalf  (ناصر احمد خلف )</t>
-  </si>
-  <si>
-    <t>Yousif Hassan Youssif  (يوسف حسن يوسف)</t>
-  </si>
-  <si>
-    <t>Ibrahim Essa Abdulla  (ابراهيم عيسى عبدالله )</t>
-  </si>
-  <si>
-    <t>Ahmed Abdulla Ali (احمد عبدالله علي )</t>
-  </si>
-  <si>
-    <t>Turkey Abdulla Essa  (تركي عبدالله عيسى)</t>
-  </si>
-  <si>
-    <t>Jassim Sami Mohammed  (جاسم سامى محمد)</t>
-  </si>
-  <si>
-    <t>Jassim Mohammed Ahmed  (جاسم محمد احمد)</t>
-  </si>
-  <si>
-    <t>Hassan Ahmed Hassan  (حسن احمد حسن )</t>
-  </si>
-  <si>
-    <t>Hassan Abdulla Hassan  (حسن عبدالله حسن )</t>
-  </si>
-  <si>
-    <t>Hamad Thabt Mohammed  (حمد ضابت محمد )</t>
-  </si>
-  <si>
-    <t>Hamad Ali Mubarak  (حمد علي مبارك)</t>
-  </si>
-  <si>
-    <t>Hamad Mohammed Hamad (حمد محمد حمد )</t>
-  </si>
-  <si>
-    <t>Kahaled Rashid Hamad  (خالد راشد حمد )</t>
-  </si>
-  <si>
-    <t>Zayed Mohammed Abdulla  (زايد محمد عبدالله )</t>
-  </si>
-  <si>
-    <t>Saad Ibrahim Mohammed  (سعد ابراهيم محمد )</t>
-  </si>
-  <si>
-    <t>Saud Khaled Abdulaziz  (سعود خالد عبدالعزيز )</t>
-  </si>
-  <si>
-    <t>Sultan Abdulla Hassan  (سلطان عبدالله حسن )</t>
-  </si>
-  <si>
-    <t>Saleh Helal Ali (صالح هلال علي )</t>
-  </si>
-  <si>
-    <t>Talal Jaber Khmees (طلال جابر خميس )</t>
-  </si>
-  <si>
-    <t>Abdulrahman Saud Nasser  (عبدالرحمن سعود ناصر )</t>
-  </si>
-  <si>
-    <t>Abdulrahman Abdulla Saeed  (عبدالرحمن عبدالله سعيد)</t>
-  </si>
-  <si>
-    <t>Abdulrahman Majed Khaleefa  (عبدالرحمن ماجد خليفة )</t>
-  </si>
-  <si>
-    <t>Abdulaziz Mansour Sultan (عبدالعزيز منصور سلطان)</t>
-  </si>
-  <si>
-    <t>Abdulla Ateeq Abdulla  (عبدالله عتيق عبدالله )</t>
-  </si>
-  <si>
-    <t>Abdulla Hadi Theeb  (عبدالله هادي ذيب )</t>
-  </si>
-  <si>
-    <t>Abdulhadi Mohammed Abdulla  (عبدالهادي محمد عبدالله )</t>
-  </si>
-  <si>
-    <t>Ali Hassan Ali (علي حسن علي )</t>
-  </si>
-  <si>
-    <t>Ali Saeed Saleh  (علي سعيد صالح)</t>
-  </si>
-  <si>
-    <t>Ali Saeed Ali (علي سعيد علي )</t>
-  </si>
-  <si>
-    <t>Amyer Mohammed Abdulla  (عمير محمد عبدالله )</t>
+    <t xml:space="preserve">
+Heavy damage: 1604
+Catastrophic kill: 1604
+Medium damage: 1604
+Medium damage: 1604
+Catastrophic kill: 1604
+Heavy damage: 1625
+Catastrophic kill: 1625
+Heavy damage: 1604
+Catastrophic kill: 1604
+Medium damage: 1604
+Heavy damage: 1604
+Catastrophic kill: 1604
+Heavy damage: 1604
+Catastrophic kill: 1604
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1328,15 +1063,6 @@
 Catastrophic kill: 1603
 Catastrophic kill: 1603
 </t>
-  </si>
-  <si>
-    <t>Faisal Hamad Saud  (فيصل حمد سعود)</t>
-  </si>
-  <si>
-    <t>Nasser Saleh Nasser  (ناصر صالح ناصر )</t>
-  </si>
-  <si>
-    <t>Youssif Rashid Hamad (يوسف راشد حمد)</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1374,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16021050" y="0"/>
+          <a:off x="14725650" y="0"/>
           <a:ext cx="1987391" cy="575786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1678,7 +1404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="0"/>
+          <a:off x="5400675" y="0"/>
           <a:ext cx="4733925" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1719,7 +1445,7 @@
               <a:latin typeface="Calibri (Body)"/>
               <a:cs typeface="Calibri (Body)"/>
             </a:rPr>
-            <a:t>ex: d3</a:t>
+            <a:t>asa: fdfsd</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2026,14 +1752,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -2672,16 +2398,16 @@
         <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G23" s="5">
         <v>1603</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>13</v>
+      <c r="H23" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2710,7 +2436,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2739,7 +2465,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2768,7 +2494,7 @@
         <v>13</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2797,7 +2523,7 @@
         <v>13</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2826,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2855,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2884,7 +2610,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2904,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="5">
         <v>1608</v>
@@ -2913,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2942,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2971,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3000,7 +2726,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3029,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3058,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3087,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3116,7 +2842,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3145,7 +2871,7 @@
         <v>13</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3165,16 +2891,16 @@
         <v>11</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G40" s="5">
         <v>1603</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>13</v>
+      <c r="H40" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3203,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3232,7 +2958,7 @@
         <v>13</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3261,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3290,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3319,7 +3045,7 @@
         <v>23</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3339,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" s="5">
         <v>1608</v>
@@ -3348,7 +3074,7 @@
         <v>23</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3377,7 +3103,7 @@
         <v>13</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3406,7 +3132,7 @@
         <v>13</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3435,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3464,7 +3190,7 @@
         <v>23</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3493,7 +3219,7 @@
         <v>13</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3522,7 +3248,7 @@
         <v>13</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3551,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3580,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3600,16 +3326,16 @@
         <v>11</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G55" s="5">
         <v>1603</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>13</v>
+      <c r="H55" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3638,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3667,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3696,7 +3422,7 @@
         <v>13</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3725,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3754,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3783,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3812,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3841,7 +3567,7 @@
         <v>13</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3870,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3890,16 +3616,16 @@
         <v>11</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G65" s="5">
         <v>1603</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>13</v>
+      <c r="H65" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3928,7 +3654,7 @@
         <v>13</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3957,7 +3683,7 @@
         <v>13</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3986,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4006,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" s="5">
         <v>1608</v>
@@ -4015,7 +3741,7 @@
         <v>23</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4044,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4073,7 +3799,7 @@
         <v>13</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4102,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4131,7 +3857,7 @@
         <v>23</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4160,7 +3886,7 @@
         <v>13</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4189,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4218,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4247,7 +3973,7 @@
         <v>13</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4276,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4293,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>12</v>
@@ -4305,7 +4031,7 @@
         <v>13</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4322,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -4334,7 +4060,7 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4351,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>12</v>
@@ -4363,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4392,7 +4118,7 @@
         <v>13</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4421,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4450,7 +4176,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4479,7 +4205,7 @@
         <v>13</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4508,7 +4234,7 @@
         <v>13</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4528,16 +4254,16 @@
         <v>11</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G87" s="5">
         <v>1603</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>13</v>
+      <c r="H87" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4566,7 +4292,7 @@
         <v>23</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4595,7 +4321,7 @@
         <v>13</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4615,16 +4341,16 @@
         <v>11</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G90" s="5">
         <v>1603</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>13</v>
+      <c r="H90" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4653,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4682,7 +4408,7 @@
         <v>23</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4711,7 +4437,7 @@
         <v>13</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4740,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4769,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4789,16 +4515,16 @@
         <v>11</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G96" s="5">
         <v>1603</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>13</v>
+      <c r="H96" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4827,7 +4553,7 @@
         <v>23</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4856,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4885,7 +4611,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4914,7 +4640,7 @@
         <v>23</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4934,16 +4660,16 @@
         <v>11</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G101" s="5">
         <v>1603</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>13</v>
+      <c r="H101" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4972,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4992,16 +4718,16 @@
         <v>11</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G103" s="5">
         <v>1603</v>
       </c>
-      <c r="H103" s="5" t="s">
-        <v>13</v>
+      <c r="H103" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5030,7 +4756,7 @@
         <v>23</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5059,7 +4785,7 @@
         <v>13</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5079,16 +4805,16 @@
         <v>11</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G106" s="5">
         <v>1603</v>
       </c>
-      <c r="H106" s="5" t="s">
-        <v>13</v>
+      <c r="H106" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5117,7 +4843,7 @@
         <v>23</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5146,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5166,16 +4892,16 @@
         <v>15</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G109" s="5">
         <v>1603</v>
       </c>
-      <c r="H109" s="5" t="s">
-        <v>13</v>
+      <c r="H109" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5195,16 +4921,16 @@
         <v>11</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G110" s="5">
         <v>1603</v>
       </c>
-      <c r="H110" s="5" t="s">
-        <v>13</v>
+      <c r="H110" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5233,7 +4959,7 @@
         <v>23</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5262,7 +4988,7 @@
         <v>23</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5282,16 +5008,16 @@
         <v>11</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G113" s="5">
         <v>1603</v>
       </c>
-      <c r="H113" s="5" t="s">
-        <v>13</v>
+      <c r="H113" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5320,7 +5046,7 @@
         <v>23</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5349,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5369,16 +5095,16 @@
         <v>11</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G116" s="5">
         <v>1603</v>
       </c>
-      <c r="H116" s="5" t="s">
-        <v>13</v>
+      <c r="H116" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5407,7 +5133,7 @@
         <v>23</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5436,7 +5162,7 @@
         <v>23</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5456,16 +5182,16 @@
         <v>15</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G119" s="5">
         <v>1603</v>
       </c>
-      <c r="H119" s="5" t="s">
-        <v>13</v>
+      <c r="H119" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5485,16 +5211,16 @@
         <v>11</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G120" s="5">
         <v>1603</v>
       </c>
-      <c r="H120" s="5" t="s">
-        <v>13</v>
+      <c r="H120" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5523,7 +5249,7 @@
         <v>23</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5543,16 +5269,16 @@
         <v>11</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G122" s="5">
         <v>1603</v>
       </c>
-      <c r="H122" s="5" t="s">
-        <v>13</v>
+      <c r="H122" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5581,7 +5307,7 @@
         <v>23</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5610,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5639,7 +5365,7 @@
         <v>13</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5659,16 +5385,16 @@
         <v>11</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G126" s="5">
         <v>1603</v>
       </c>
-      <c r="H126" s="5" t="s">
-        <v>13</v>
+      <c r="H126" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5688,16 +5414,16 @@
         <v>24</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G127" s="5">
         <v>1603</v>
       </c>
-      <c r="H127" s="5" t="s">
-        <v>13</v>
+      <c r="H127" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5717,16 +5443,16 @@
         <v>15</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G128" s="5">
         <v>1603</v>
       </c>
-      <c r="H128" s="5" t="s">
-        <v>13</v>
+      <c r="H128" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5746,16 +5472,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G129" s="5">
         <v>1603</v>
       </c>
-      <c r="H129" s="5" t="s">
-        <v>13</v>
+      <c r="H129" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5784,7 +5510,7 @@
         <v>13</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5813,7 +5539,7 @@
         <v>13</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5842,7 +5568,7 @@
         <v>13</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5871,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5891,16 +5617,16 @@
         <v>15</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G134" s="5">
         <v>1603</v>
       </c>
-      <c r="H134" s="5" t="s">
-        <v>13</v>
+      <c r="H134" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5920,16 +5646,16 @@
         <v>11</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G135" s="5">
         <v>1603</v>
       </c>
-      <c r="H135" s="5" t="s">
-        <v>13</v>
+      <c r="H135" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5958,7 +5684,7 @@
         <v>13</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5987,7 +5713,7 @@
         <v>13</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6007,16 +5733,16 @@
         <v>15</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G138" s="5">
         <v>1603</v>
       </c>
-      <c r="H138" s="5" t="s">
-        <v>13</v>
+      <c r="H138" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6036,16 +5762,16 @@
         <v>11</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G139" s="5">
         <v>1603</v>
       </c>
-      <c r="H139" s="5" t="s">
-        <v>13</v>
+      <c r="H139" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6074,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6103,7 +5829,7 @@
         <v>13</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6132,7 +5858,7 @@
         <v>13</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6161,7 +5887,7 @@
         <v>13</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6190,7 +5916,7 @@
         <v>13</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6219,7 +5945,7 @@
         <v>13</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6239,16 +5965,16 @@
         <v>15</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G146" s="5">
         <v>1603</v>
       </c>
-      <c r="H146" s="5" t="s">
-        <v>13</v>
+      <c r="H146" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6268,16 +5994,16 @@
         <v>11</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G147" s="5">
         <v>1603</v>
       </c>
-      <c r="H147" s="5" t="s">
-        <v>13</v>
+      <c r="H147" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6306,7 +6032,7 @@
         <v>13</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6335,7 +6061,7 @@
         <v>13</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6364,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6384,16 +6110,16 @@
         <v>24</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G151" s="5">
         <v>1603</v>
       </c>
-      <c r="H151" s="5" t="s">
-        <v>13</v>
+      <c r="H151" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6413,16 +6139,16 @@
         <v>15</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G152" s="5">
         <v>1603</v>
       </c>
-      <c r="H152" s="5" t="s">
-        <v>13</v>
+      <c r="H152" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6442,16 +6168,16 @@
         <v>11</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G153" s="5">
         <v>1603</v>
       </c>
-      <c r="H153" s="5" t="s">
-        <v>13</v>
+      <c r="H153" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6468,7 +6194,7 @@
         <v>10</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>22</v>
@@ -6480,7 +6206,7 @@
         <v>23</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6509,7 +6235,7 @@
         <v>23</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6538,7 +6264,7 @@
         <v>23</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6567,7 +6293,7 @@
         <v>23</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6587,16 +6313,16 @@
         <v>15</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G158" s="5">
         <v>1603</v>
       </c>
-      <c r="H158" s="5" t="s">
-        <v>13</v>
+      <c r="H158" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6616,16 +6342,16 @@
         <v>11</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G159" s="5">
         <v>1603</v>
       </c>
-      <c r="H159" s="5" t="s">
-        <v>13</v>
+      <c r="H159" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6654,7 +6380,7 @@
         <v>13</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6683,7 +6409,7 @@
         <v>23</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6703,16 +6429,16 @@
         <v>15</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G162" s="5">
         <v>1603</v>
       </c>
-      <c r="H162" s="5" t="s">
-        <v>13</v>
+      <c r="H162" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6732,16 +6458,16 @@
         <v>11</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G163" s="5">
         <v>1603</v>
       </c>
-      <c r="H163" s="5" t="s">
-        <v>13</v>
+      <c r="H163" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6758,7 +6484,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>12</v>
@@ -6770,7 +6496,7 @@
         <v>13</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6787,19 +6513,19 @@
         <v>10</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G165" s="5">
         <v>1603</v>
       </c>
-      <c r="H165" s="5" t="s">
-        <v>13</v>
+      <c r="H165" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6816,7 +6542,7 @@
         <v>10</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>36</v>
@@ -6828,7 +6554,7 @@
         <v>23</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6845,7 +6571,7 @@
         <v>10</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>22</v>
@@ -6857,7 +6583,7 @@
         <v>23</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6886,7 +6612,7 @@
         <v>23</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6915,7 +6641,7 @@
         <v>13</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6944,7 +6670,7 @@
         <v>13</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6973,7 +6699,7 @@
         <v>13</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6993,16 +6719,16 @@
         <v>11</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G172" s="5">
         <v>1603</v>
       </c>
-      <c r="H172" s="5" t="s">
-        <v>13</v>
+      <c r="H172" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7019,19 +6745,19 @@
         <v>10</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G173" s="5">
         <v>1603</v>
       </c>
-      <c r="H173" s="5" t="s">
-        <v>13</v>
+      <c r="H173" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7051,16 +6777,16 @@
         <v>24</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G174" s="5">
         <v>1603</v>
       </c>
-      <c r="H174" s="5" t="s">
-        <v>13</v>
+      <c r="H174" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7080,16 +6806,16 @@
         <v>15</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G175" s="5">
         <v>1603</v>
       </c>
-      <c r="H175" s="5" t="s">
-        <v>13</v>
+      <c r="H175" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7109,16 +6835,16 @@
         <v>11</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G176" s="5">
         <v>1603</v>
       </c>
-      <c r="H176" s="5" t="s">
-        <v>13</v>
+      <c r="H176" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7147,7 +6873,7 @@
         <v>23</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7167,16 +6893,16 @@
         <v>11</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G178" s="5">
         <v>1603</v>
       </c>
-      <c r="H178" s="5" t="s">
-        <v>13</v>
+      <c r="H178" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7205,7 +6931,7 @@
         <v>23</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7225,16 +6951,16 @@
         <v>11</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G180" s="5">
         <v>1603</v>
       </c>
-      <c r="H180" s="5" t="s">
-        <v>13</v>
+      <c r="H180" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7242,13 +6968,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C181" s="5">
         <v>1603</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>10</v>
+      <c r="D181" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>15</v>
@@ -7263,7 +6989,7 @@
         <v>23</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7271,13 +6997,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C182" s="5">
         <v>1603</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>10</v>
+      <c r="D182" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>11</v>
@@ -7292,7 +7018,7 @@
         <v>23</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7321,7 +7047,7 @@
         <v>23</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7350,7 +7076,7 @@
         <v>23</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7379,7 +7105,7 @@
         <v>23</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7408,7 +7134,7 @@
         <v>23</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7425,7 +7151,7 @@
         <v>10</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>36</v>
@@ -7437,7 +7163,7 @@
         <v>23</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7454,7 +7180,7 @@
         <v>10</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>36</v>
@@ -7466,7 +7192,7 @@
         <v>23</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7495,7 +7221,7 @@
         <v>23</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7512,19 +7238,19 @@
         <v>10</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G190" s="5">
         <v>1603</v>
       </c>
-      <c r="H190" s="5" t="s">
-        <v>13</v>
+      <c r="H190" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7553,7 +7279,7 @@
         <v>23</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7582,7 +7308,7 @@
         <v>23</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7611,7 +7337,7 @@
         <v>23</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7640,7 +7366,7 @@
         <v>23</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7669,7 +7395,7 @@
         <v>23</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7677,13 +7403,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C196" s="5">
         <v>1603</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>10</v>
+      <c r="D196" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>24</v>
@@ -7698,7 +7424,7 @@
         <v>23</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7718,16 +7444,16 @@
         <v>15</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G197" s="5">
         <v>1603</v>
       </c>
-      <c r="H197" s="5" t="s">
-        <v>13</v>
+      <c r="H197" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7747,16 +7473,16 @@
         <v>11</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G198" s="5">
         <v>1603</v>
       </c>
-      <c r="H198" s="5" t="s">
-        <v>13</v>
+      <c r="H198" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7785,7 +7511,7 @@
         <v>23</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7814,7 +7540,7 @@
         <v>23</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7843,7 +7569,7 @@
         <v>23</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7872,7 +7598,7 @@
         <v>23</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7892,16 +7618,16 @@
         <v>11</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G203" s="5">
         <v>1603</v>
       </c>
-      <c r="H203" s="5" t="s">
-        <v>13</v>
+      <c r="H203" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7930,7 +7656,7 @@
         <v>23</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7959,7 +7685,7 @@
         <v>23</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7979,16 +7705,16 @@
         <v>11</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G206" s="5">
         <v>1603</v>
       </c>
-      <c r="H206" s="5" t="s">
-        <v>13</v>
+      <c r="H206" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -8008,16 +7734,16 @@
         <v>11</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G207" s="5">
         <v>1603</v>
       </c>
-      <c r="H207" s="5" t="s">
-        <v>13</v>
+      <c r="H207" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -8037,16 +7763,16 @@
         <v>24</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G208" s="5">
         <v>1603</v>
       </c>
-      <c r="H208" s="5" t="s">
-        <v>13</v>
+      <c r="H208" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -8066,16 +7792,16 @@
         <v>15</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G209" s="5">
         <v>1603</v>
       </c>
-      <c r="H209" s="5" t="s">
-        <v>13</v>
+      <c r="H209" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -8095,16 +7821,16 @@
         <v>11</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G210" s="5">
         <v>1603</v>
       </c>
-      <c r="H210" s="5" t="s">
-        <v>13</v>
+      <c r="H210" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8112,13 +7838,13 @@
         <v>209</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C211" s="5">
         <v>1603</v>
       </c>
-      <c r="D211" s="5" t="s">
-        <v>10</v>
+      <c r="D211" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>24</v>
@@ -8133,7 +7859,7 @@
         <v>23</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8141,13 +7867,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C212" s="5">
         <v>1603</v>
       </c>
-      <c r="D212" s="5" t="s">
-        <v>10</v>
+      <c r="D212" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>11</v>
@@ -8162,7 +7888,7 @@
         <v>23</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8182,16 +7908,16 @@
         <v>11</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G213" s="5">
         <v>1603</v>
       </c>
-      <c r="H213" s="5" t="s">
-        <v>13</v>
+      <c r="H213" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8211,16 +7937,16 @@
         <v>15</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G214" s="5">
         <v>1603</v>
       </c>
-      <c r="H214" s="5" t="s">
-        <v>13</v>
+      <c r="H214" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8240,16 +7966,16 @@
         <v>11</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G215" s="5">
         <v>1603</v>
       </c>
-      <c r="H215" s="5" t="s">
-        <v>13</v>
+      <c r="H215" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8269,16 +7995,16 @@
         <v>15</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G216" s="5">
         <v>1603</v>
       </c>
-      <c r="H216" s="5" t="s">
-        <v>13</v>
+      <c r="H216" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -8298,16 +8024,16 @@
         <v>11</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G217" s="5">
         <v>1603</v>
       </c>
-      <c r="H217" s="5" t="s">
-        <v>13</v>
+      <c r="H217" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8327,16 +8053,16 @@
         <v>15</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G218" s="5">
         <v>1603</v>
       </c>
-      <c r="H218" s="5" t="s">
-        <v>13</v>
+      <c r="H218" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -8356,16 +8082,16 @@
         <v>11</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G219" s="5">
         <v>1603</v>
       </c>
-      <c r="H219" s="5" t="s">
-        <v>13</v>
+      <c r="H219" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -8385,16 +8111,16 @@
         <v>24</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G220" s="5">
         <v>1603</v>
       </c>
-      <c r="H220" s="5" t="s">
-        <v>13</v>
+      <c r="H220" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8414,16 +8140,16 @@
         <v>15</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G221" s="5">
         <v>1603</v>
       </c>
-      <c r="H221" s="5" t="s">
-        <v>13</v>
+      <c r="H221" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8443,16 +8169,16 @@
         <v>11</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G222" s="5">
         <v>1603</v>
       </c>
-      <c r="H222" s="5" t="s">
-        <v>13</v>
+      <c r="H222" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8481,7 +8207,7 @@
         <v>13</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8489,13 +8215,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C224" s="5">
         <v>1603</v>
       </c>
-      <c r="D224" s="5" t="s">
-        <v>10</v>
+      <c r="D224" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>15</v>
@@ -8510,7 +8236,7 @@
         <v>13</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8530,16 +8256,16 @@
         <v>11</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G225" s="5">
         <v>1603</v>
       </c>
-      <c r="H225" s="5" t="s">
-        <v>13</v>
+      <c r="H225" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8547,13 +8273,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C226" s="5">
         <v>1603</v>
       </c>
-      <c r="D226" s="5" t="s">
-        <v>10</v>
+      <c r="D226" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>11</v>
@@ -8568,7 +8294,7 @@
         <v>13</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8597,7 +8323,7 @@
         <v>23</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8626,7 +8352,7 @@
         <v>23</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8655,7 +8381,7 @@
         <v>23</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8684,7 +8410,7 @@
         <v>13</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -8713,7 +8439,7 @@
         <v>13</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8742,7 +8468,7 @@
         <v>13</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8771,7 +8497,7 @@
         <v>23</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8791,16 +8517,16 @@
         <v>15</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G234" s="5">
         <v>1603</v>
       </c>
-      <c r="H234" s="5" t="s">
-        <v>13</v>
+      <c r="H234" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8829,7 +8555,7 @@
         <v>23</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8858,7 +8584,7 @@
         <v>23</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8887,7 +8613,7 @@
         <v>23</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8916,7 +8642,7 @@
         <v>13</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8945,7 +8671,7 @@
         <v>13</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8974,7 +8700,7 @@
         <v>13</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -9003,7 +8729,7 @@
         <v>13</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9032,7 +8758,7 @@
         <v>13</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9061,7 +8787,7 @@
         <v>13</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -9090,7 +8816,7 @@
         <v>23</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -9119,7 +8845,7 @@
         <v>23</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -9148,7 +8874,7 @@
         <v>13</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -9177,7 +8903,7 @@
         <v>23</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -9197,16 +8923,16 @@
         <v>11</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G248" s="5">
         <v>1603</v>
       </c>
-      <c r="H248" s="5" t="s">
-        <v>13</v>
+      <c r="H248" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -9226,16 +8952,16 @@
         <v>24</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G249" s="5">
         <v>1603</v>
       </c>
-      <c r="H249" s="5" t="s">
-        <v>13</v>
+      <c r="H249" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -9255,16 +8981,16 @@
         <v>15</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G250" s="5">
         <v>1603</v>
       </c>
-      <c r="H250" s="5" t="s">
-        <v>13</v>
+      <c r="H250" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -9284,16 +9010,16 @@
         <v>11</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G251" s="5">
         <v>1603</v>
       </c>
-      <c r="H251" s="5" t="s">
-        <v>13</v>
+      <c r="H251" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -9313,16 +9039,16 @@
         <v>11</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G252" s="5">
         <v>1603</v>
       </c>
-      <c r="H252" s="5" t="s">
-        <v>13</v>
+      <c r="H252" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -9342,16 +9068,16 @@
         <v>11</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G253" s="5">
         <v>1603</v>
       </c>
-      <c r="H253" s="5" t="s">
-        <v>13</v>
+      <c r="H253" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -9371,16 +9097,16 @@
         <v>11</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G254" s="5">
         <v>1603</v>
       </c>
-      <c r="H254" s="5" t="s">
-        <v>13</v>
+      <c r="H254" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -9400,16 +9126,16 @@
         <v>11</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G255" s="5">
         <v>1603</v>
       </c>
-      <c r="H255" s="5" t="s">
-        <v>13</v>
+      <c r="H255" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -9429,16 +9155,16 @@
         <v>24</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G256" s="5">
         <v>1603</v>
       </c>
-      <c r="H256" s="5" t="s">
-        <v>13</v>
+      <c r="H256" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -9458,16 +9184,16 @@
         <v>15</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G257" s="5">
         <v>1603</v>
       </c>
-      <c r="H257" s="5" t="s">
-        <v>13</v>
+      <c r="H257" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9487,16 +9213,16 @@
         <v>11</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G258" s="5">
         <v>1603</v>
       </c>
-      <c r="H258" s="5" t="s">
-        <v>13</v>
+      <c r="H258" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -9504,13 +9230,13 @@
         <v>257</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C259" s="5">
         <v>1603</v>
       </c>
-      <c r="D259" s="5" t="s">
-        <v>10</v>
+      <c r="D259" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E259" s="7" t="s">
         <v>15</v>
@@ -9525,7 +9251,7 @@
         <v>23</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9533,13 +9259,13 @@
         <v>258</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C260" s="5">
         <v>1603</v>
       </c>
-      <c r="D260" s="5" t="s">
-        <v>10</v>
+      <c r="D260" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>11</v>
@@ -9554,7 +9280,7 @@
         <v>23</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9574,16 +9300,16 @@
         <v>15</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G261" s="5">
         <v>1603</v>
       </c>
-      <c r="H261" s="5" t="s">
-        <v>13</v>
+      <c r="H261" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9603,16 +9329,16 @@
         <v>11</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G262" s="5">
         <v>1603</v>
       </c>
-      <c r="H262" s="5" t="s">
-        <v>13</v>
+      <c r="H262" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9620,13 +9346,13 @@
         <v>261</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C263" s="5">
         <v>1603</v>
       </c>
-      <c r="D263" s="5" t="s">
-        <v>10</v>
+      <c r="D263" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E263" s="7" t="s">
         <v>24</v>
@@ -9641,7 +9367,7 @@
         <v>23</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -9649,13 +9375,13 @@
         <v>262</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C264" s="5">
         <v>1603</v>
       </c>
-      <c r="D264" s="5" t="s">
-        <v>10</v>
+      <c r="D264" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E264" s="7" t="s">
         <v>15</v>
@@ -9670,7 +9396,7 @@
         <v>23</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -9678,13 +9404,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C265" s="5">
         <v>1603</v>
       </c>
-      <c r="D265" s="5" t="s">
-        <v>10</v>
+      <c r="D265" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>11</v>
@@ -9699,7 +9425,7 @@
         <v>23</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9719,16 +9445,16 @@
         <v>15</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G266" s="5">
         <v>1603</v>
       </c>
-      <c r="H266" s="5" t="s">
-        <v>13</v>
+      <c r="H266" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9748,16 +9474,16 @@
         <v>11</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G267" s="5">
         <v>1603</v>
       </c>
-      <c r="H267" s="5" t="s">
-        <v>13</v>
+      <c r="H267" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9777,16 +9503,16 @@
         <v>11</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G268" s="5">
         <v>1603</v>
       </c>
-      <c r="H268" s="5" t="s">
-        <v>13</v>
+      <c r="H268" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9806,16 +9532,16 @@
         <v>11</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G269" s="5">
         <v>1603</v>
       </c>
-      <c r="H269" s="5" t="s">
-        <v>13</v>
+      <c r="H269" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9823,13 +9549,13 @@
         <v>268</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C270" s="5">
         <v>1603</v>
       </c>
-      <c r="D270" s="5" t="s">
-        <v>10</v>
+      <c r="D270" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E270" s="7" t="s">
         <v>15</v>
@@ -9844,7 +9570,7 @@
         <v>23</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -9852,13 +9578,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C271" s="5">
         <v>1603</v>
       </c>
-      <c r="D271" s="5" t="s">
-        <v>10</v>
+      <c r="D271" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E271" s="7" t="s">
         <v>11</v>
@@ -9873,7 +9599,7 @@
         <v>23</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -9902,7 +9628,7 @@
         <v>23</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9919,7 +9645,7 @@
         <v>10</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>36</v>
@@ -9931,7 +9657,7 @@
         <v>23</v>
       </c>
       <c r="I273" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9960,7 +9686,7 @@
         <v>23</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9989,7 +9715,7 @@
         <v>23</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -10018,7 +9744,7 @@
         <v>23</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -10047,7 +9773,7 @@
         <v>23</v>
       </c>
       <c r="I277" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -10076,7 +9802,7 @@
         <v>23</v>
       </c>
       <c r="I278" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -10096,16 +9822,16 @@
         <v>11</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G279" s="5">
         <v>1603</v>
       </c>
-      <c r="H279" s="5" t="s">
-        <v>13</v>
+      <c r="H279" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -10134,7 +9860,7 @@
         <v>23</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -10154,16 +9880,16 @@
         <v>11</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G281" s="5">
         <v>1603</v>
       </c>
-      <c r="H281" s="5" t="s">
-        <v>13</v>
+      <c r="H281" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -10183,16 +9909,16 @@
         <v>11</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G282" s="5">
         <v>1603</v>
       </c>
-      <c r="H282" s="5" t="s">
-        <v>13</v>
+      <c r="H282" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -10221,7 +9947,7 @@
         <v>23</v>
       </c>
       <c r="I283" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -10250,7 +9976,7 @@
         <v>23</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -10279,7 +10005,7 @@
         <v>23</v>
       </c>
       <c r="I285" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -10308,7 +10034,7 @@
         <v>23</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -10328,16 +10054,16 @@
         <v>15</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G287" s="5">
         <v>1603</v>
       </c>
-      <c r="H287" s="5" t="s">
-        <v>13</v>
+      <c r="H287" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -10357,16 +10083,16 @@
         <v>11</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G288" s="5">
         <v>1603</v>
       </c>
-      <c r="H288" s="5" t="s">
-        <v>13</v>
+      <c r="H288" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I288" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -10386,16 +10112,16 @@
         <v>11</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G289" s="5">
         <v>1603</v>
       </c>
-      <c r="H289" s="5" t="s">
-        <v>13</v>
+      <c r="H289" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I289" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -10415,16 +10141,16 @@
         <v>11</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G290" s="5">
         <v>1603</v>
       </c>
-      <c r="H290" s="5" t="s">
-        <v>13</v>
+      <c r="H290" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I290" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -10453,7 +10179,7 @@
         <v>23</v>
       </c>
       <c r="I291" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -10482,26 +10208,26 @@
         <v>23</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="B297" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C297" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="B298" s="9" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="C298" s="10">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>303</v>
@@ -10509,1091 +10235,24 @@
     </row>
     <row r="299" spans="1:9">
       <c r="B299" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C299" s="10">
+        <v>14</v>
+      </c>
+      <c r="D299" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="C299" s="10">
-        <v>0</v>
-      </c>
-      <c r="D299" s="11" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="B300" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C300" s="10">
+        <v>36</v>
+      </c>
+      <c r="D300" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="C300" s="10">
-        <v>0</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="B301" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C301" s="10">
-        <v>0</v>
-      </c>
-      <c r="D301" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="B302" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C302" s="10">
-        <v>0</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="B303" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C303" s="10">
-        <v>0</v>
-      </c>
-      <c r="D303" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="B304" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C304" s="10">
-        <v>0</v>
-      </c>
-      <c r="D304" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4">
-      <c r="B305" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C305" s="10">
-        <v>0</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="306" spans="2:4">
-      <c r="B306" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C306" s="10">
-        <v>0</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4">
-      <c r="B307" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C307" s="10">
-        <v>0</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="308" spans="2:4">
-      <c r="B308" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C308" s="10">
-        <v>0</v>
-      </c>
-      <c r="D308" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="309" spans="2:4">
-      <c r="B309" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C309" s="10">
-        <v>0</v>
-      </c>
-      <c r="D309" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="310" spans="2:4">
-      <c r="B310" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C310" s="10">
-        <v>0</v>
-      </c>
-      <c r="D310" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="311" spans="2:4">
-      <c r="B311" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C311" s="10">
-        <v>0</v>
-      </c>
-      <c r="D311" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="B312" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C312" s="10">
-        <v>0</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="313" spans="2:4">
-      <c r="B313" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C313" s="10">
-        <v>0</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4">
-      <c r="B314" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C314" s="10">
-        <v>0</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="315" spans="2:4">
-      <c r="B315" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C315" s="10">
-        <v>0</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4">
-      <c r="B316" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C316" s="10">
-        <v>0</v>
-      </c>
-      <c r="D316" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4">
-      <c r="B317" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C317" s="10">
-        <v>0</v>
-      </c>
-      <c r="D317" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4">
-      <c r="B318" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C318" s="10">
-        <v>0</v>
-      </c>
-      <c r="D318" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4">
-      <c r="B319" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C319" s="10">
-        <v>0</v>
-      </c>
-      <c r="D319" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4">
-      <c r="B320" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C320" s="10">
-        <v>0</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="B321" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C321" s="10">
-        <v>0</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4">
-      <c r="B322" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C322" s="10">
-        <v>0</v>
-      </c>
-      <c r="D322" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="323" spans="2:4">
-      <c r="B323" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C323" s="10">
-        <v>0</v>
-      </c>
-      <c r="D323" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4">
-      <c r="B324" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C324" s="10">
-        <v>0</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4">
-      <c r="B325" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C325" s="10">
-        <v>0</v>
-      </c>
-      <c r="D325" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4">
-      <c r="B326" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C326" s="10">
-        <v>0</v>
-      </c>
-      <c r="D326" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4">
-      <c r="B327" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C327" s="10">
-        <v>0</v>
-      </c>
-      <c r="D327" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4">
-      <c r="B328" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C328" s="10">
-        <v>0</v>
-      </c>
-      <c r="D328" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4">
-      <c r="B329" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C329" s="10">
-        <v>0</v>
-      </c>
-      <c r="D329" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4">
-      <c r="B330" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C330" s="10">
-        <v>0</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4">
-      <c r="B331" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C331" s="10">
-        <v>0</v>
-      </c>
-      <c r="D331" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4">
-      <c r="B332" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C332" s="10">
-        <v>0</v>
-      </c>
-      <c r="D332" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4">
-      <c r="B333" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C333" s="10">
-        <v>0</v>
-      </c>
-      <c r="D333" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4">
-      <c r="B334" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C334" s="10">
-        <v>0</v>
-      </c>
-      <c r="D334" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4">
-      <c r="B335" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C335" s="10">
-        <v>0</v>
-      </c>
-      <c r="D335" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4">
-      <c r="B336" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C336" s="10">
-        <v>0</v>
-      </c>
-      <c r="D336" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="B337" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C337" s="10">
-        <v>0</v>
-      </c>
-      <c r="D337" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4">
-      <c r="B338" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C338" s="10">
-        <v>0</v>
-      </c>
-      <c r="D338" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4">
-      <c r="B339" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C339" s="10">
-        <v>0</v>
-      </c>
-      <c r="D339" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="B340" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C340" s="10">
-        <v>0</v>
-      </c>
-      <c r="D340" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4">
-      <c r="B341" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C341" s="10">
-        <v>0</v>
-      </c>
-      <c r="D341" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4">
-      <c r="B342" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C342" s="10">
-        <v>0</v>
-      </c>
-      <c r="D342" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4">
-      <c r="B343" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C343" s="10">
-        <v>0</v>
-      </c>
-      <c r="D343" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4">
-      <c r="B344" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C344" s="10">
-        <v>0</v>
-      </c>
-      <c r="D344" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4">
-      <c r="B345" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C345" s="10">
-        <v>0</v>
-      </c>
-      <c r="D345" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4">
-      <c r="B346" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C346" s="10">
-        <v>0</v>
-      </c>
-      <c r="D346" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4">
-      <c r="B347" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C347" s="10">
-        <v>0</v>
-      </c>
-      <c r="D347" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4">
-      <c r="B348" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C348" s="10">
-        <v>0</v>
-      </c>
-      <c r="D348" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4">
-      <c r="B349" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C349" s="10">
-        <v>0</v>
-      </c>
-      <c r="D349" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4">
-      <c r="B350" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C350" s="10">
-        <v>0</v>
-      </c>
-      <c r="D350" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4">
-      <c r="B351" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C351" s="10">
-        <v>0</v>
-      </c>
-      <c r="D351" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4">
-      <c r="B352" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C352" s="10">
-        <v>0</v>
-      </c>
-      <c r="D352" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4">
-      <c r="B353" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C353" s="10">
-        <v>78</v>
-      </c>
-      <c r="D353" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4">
-      <c r="B354" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C354" s="10">
-        <v>0</v>
-      </c>
-      <c r="D354" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4">
-      <c r="B355" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C355" s="10">
-        <v>0</v>
-      </c>
-      <c r="D355" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4">
-      <c r="B356" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C356" s="10">
-        <v>0</v>
-      </c>
-      <c r="D356" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4">
-      <c r="B357" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C357" s="10">
-        <v>0</v>
-      </c>
-      <c r="D357" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4">
-      <c r="B358" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C358" s="10">
-        <v>0</v>
-      </c>
-      <c r="D358" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="359" spans="2:4">
-      <c r="B359" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C359" s="10">
-        <v>0</v>
-      </c>
-      <c r="D359" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="360" spans="2:4">
-      <c r="B360" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C360" s="10">
-        <v>0</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4">
-      <c r="B361" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C361" s="10">
-        <v>0</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="362" spans="2:4">
-      <c r="B362" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C362" s="10">
-        <v>0</v>
-      </c>
-      <c r="D362" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4">
-      <c r="B363" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C363" s="10">
-        <v>0</v>
-      </c>
-      <c r="D363" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="B364" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C364" s="10">
-        <v>0</v>
-      </c>
-      <c r="D364" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4">
-      <c r="B365" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C365" s="10">
-        <v>0</v>
-      </c>
-      <c r="D365" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4">
-      <c r="B366" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C366" s="10">
-        <v>0</v>
-      </c>
-      <c r="D366" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="367" spans="2:4">
-      <c r="B367" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C367" s="10">
-        <v>0</v>
-      </c>
-      <c r="D367" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="368" spans="2:4">
-      <c r="B368" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C368" s="10">
-        <v>0</v>
-      </c>
-      <c r="D368" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4">
-      <c r="B369" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C369" s="10">
-        <v>0</v>
-      </c>
-      <c r="D369" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="B370" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C370" s="10">
-        <v>0</v>
-      </c>
-      <c r="D370" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="371" spans="2:4">
-      <c r="B371" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C371" s="10">
-        <v>0</v>
-      </c>
-      <c r="D371" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4">
-      <c r="B372" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C372" s="10">
-        <v>0</v>
-      </c>
-      <c r="D372" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="B373" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C373" s="10">
-        <v>0</v>
-      </c>
-      <c r="D373" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4">
-      <c r="B374" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C374" s="10">
-        <v>0</v>
-      </c>
-      <c r="D374" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4">
-      <c r="B375" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C375" s="10">
-        <v>0</v>
-      </c>
-      <c r="D375" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4">
-      <c r="B376" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C376" s="10">
-        <v>0</v>
-      </c>
-      <c r="D376" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4">
-      <c r="B377" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C377" s="10">
-        <v>0</v>
-      </c>
-      <c r="D377" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4">
-      <c r="B378" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C378" s="10">
-        <v>0</v>
-      </c>
-      <c r="D378" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4">
-      <c r="B379" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C379" s="10">
-        <v>0</v>
-      </c>
-      <c r="D379" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4">
-      <c r="B380" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C380" s="10">
-        <v>0</v>
-      </c>
-      <c r="D380" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="381" spans="2:4">
-      <c r="B381" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C381" s="10">
-        <v>0</v>
-      </c>
-      <c r="D381" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4">
-      <c r="B382" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C382" s="10">
-        <v>0</v>
-      </c>
-      <c r="D382" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4">
-      <c r="B383" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C383" s="10">
-        <v>0</v>
-      </c>
-      <c r="D383" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4">
-      <c r="B384" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C384" s="10">
-        <v>0</v>
-      </c>
-      <c r="D384" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="385" spans="2:4">
-      <c r="B385" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C385" s="10">
-        <v>0</v>
-      </c>
-      <c r="D385" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="386" spans="2:4">
-      <c r="B386" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C386" s="10">
-        <v>0</v>
-      </c>
-      <c r="D386" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="387" spans="2:4">
-      <c r="B387" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C387" s="10">
-        <v>0</v>
-      </c>
-      <c r="D387" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="388" spans="2:4">
-      <c r="B388" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C388" s="10">
-        <v>0</v>
-      </c>
-      <c r="D388" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="389" spans="2:4">
-      <c r="B389" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C389" s="10">
-        <v>0</v>
-      </c>
-      <c r="D389" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="390" spans="2:4">
-      <c r="B390" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C390" s="10">
-        <v>0</v>
-      </c>
-      <c r="D390" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="391" spans="2:4">
-      <c r="B391" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C391" s="10">
-        <v>0</v>
-      </c>
-      <c r="D391" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="392" spans="2:4">
-      <c r="B392" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C392" s="10">
-        <v>0</v>
-      </c>
-      <c r="D392" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="393" spans="2:4">
-      <c r="B393" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C393" s="10">
-        <v>36</v>
-      </c>
-      <c r="D393" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="394" spans="2:4">
-      <c r="B394" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C394" s="10">
-        <v>0</v>
-      </c>
-      <c r="D394" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="395" spans="2:4">
-      <c r="B395" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C395" s="10">
-        <v>0</v>
-      </c>
-      <c r="D395" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="396" spans="2:4">
-      <c r="B396" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C396" s="10">
-        <v>0</v>
-      </c>
-      <c r="D396" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="397" spans="2:4">
-      <c r="B397" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C397" s="10">
-        <v>0</v>
-      </c>
-      <c r="D397" s="11" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Result_Translator/V1/File/20230520/Af_results_Header.xlsx
+++ b/Result_Translator/V1/File/20230520/Af_results_Header.xlsx
@@ -1445,7 +1445,7 @@
               <a:latin typeface="Calibri (Body)"/>
               <a:cs typeface="Calibri (Body)"/>
             </a:rPr>
-            <a:t>asa: fdfsd</a:t>
+            <a:t>Exe test: D4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1457,7 +1457,7 @@
               <a:latin typeface="Calibri (Body)"/>
               <a:cs typeface="Calibri (Body)"/>
             </a:rPr>
-            <a:t>        20/5/2023</a:t>
+            <a:t>        24/5/2023</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
